--- a/Daejeon_People_Server/API Document 0607.xlsx
+++ b/Daejeon_People_Server/API Document 0607.xlsx
@@ -919,14 +919,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="40.75" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
     <col min="3" max="3" width="9.625" customWidth="1"/>
     <col min="4" max="4" width="25.75" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
@@ -1813,7 +1813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
